--- a/regionseng/8/agriculture/2. Production of permanent crops.xlsx
+++ b/regionseng/8/agriculture/2. Production of permanent crops.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ITSIKHELASHVILI\ENV_Shared\რეგიონული სტატისტიკის პორტალი\ქვემო ქართლი\ENG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsmelashvili\Desktop\რეგიონული სტატისტიკის პორტალი_2023\ქვემო ქართლი\ENG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E168C86-5971-46C0-874C-FC5B86C94260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="24">
   <si>
     <t>Nuts</t>
   </si>
@@ -139,7 +138,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -303,9 +302,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -314,6 +310,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -408,23 +407,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -460,23 +442,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -652,11 +617,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,28 +632,30 @@
     <col min="18" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:19" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>2006</v>
@@ -738,8 +705,14 @@
       <c r="Q2" s="4">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R2" s="4">
+        <v>2022</v>
+      </c>
+      <c r="S2" s="4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -791,8 +764,14 @@
       <c r="Q3" s="11">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R3" s="11">
+        <v>3.7</v>
+      </c>
+      <c r="S3" s="11">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -844,8 +823,14 @@
       <c r="Q4" s="11">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R4" s="11">
+        <v>2</v>
+      </c>
+      <c r="S4" s="11">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -897,8 +882,14 @@
       <c r="Q5" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R5" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="S5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -950,8 +941,14 @@
       <c r="Q6" s="11">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R6" s="11">
+        <v>2</v>
+      </c>
+      <c r="S6" s="11">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -1003,8 +1000,14 @@
       <c r="Q7" s="8">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R7" s="8">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="S7" s="8">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1056,8 +1059,12 @@
       <c r="Q8" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S8" s="8"/>
+    </row>
+    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -1109,8 +1116,12 @@
       <c r="Q9" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S9" s="8"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1127,28 +1138,30 @@
       <c r="N10" s="7"/>
       <c r="O10" s="12"/>
     </row>
-    <row r="11" spans="1:17" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:19" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-    </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="4">
         <v>2006</v>
@@ -1198,8 +1211,14 @@
       <c r="Q12" s="4">
         <v>2021</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R12" s="4">
+        <v>2022</v>
+      </c>
+      <c r="S12" s="4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
@@ -1251,8 +1270,14 @@
       <c r="Q13" s="11">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R13" s="11">
+        <v>3</v>
+      </c>
+      <c r="S13" s="11">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
@@ -1304,8 +1329,14 @@
       <c r="Q14" s="8">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R14" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="S14" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
@@ -1357,8 +1388,14 @@
       <c r="Q15" s="11">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R15" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="S15" s="11">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
@@ -1410,8 +1447,14 @@
       <c r="Q16" s="11">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R16" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="S16" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
@@ -1463,8 +1506,14 @@
       <c r="Q17" s="11">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R17" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="S17" s="11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
@@ -1516,8 +1565,12 @@
       <c r="Q18" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S18" s="8"/>
+    </row>
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>3</v>
       </c>
@@ -1569,8 +1622,14 @@
       <c r="Q19" s="11">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R19" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="S19" s="11">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1622,8 +1681,14 @@
       <c r="Q20" s="8">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R20" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="S20" s="8">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>6</v>
       </c>
@@ -1675,8 +1740,12 @@
       <c r="Q21" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S21" s="8"/>
+    </row>
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>7</v>
       </c>
@@ -1728,8 +1797,12 @@
       <c r="Q22" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S22" s="8"/>
+    </row>
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>8</v>
       </c>
@@ -1781,77 +1854,81 @@
       <c r="Q23" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
+      <c r="R23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S23" s="8"/>
+    </row>
+    <row r="24" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-    </row>
-    <row r="25" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+    </row>
+    <row r="25" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-    </row>
-    <row r="26" spans="1:17" s="9" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+    </row>
+    <row r="26" spans="1:19" s="9" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A11:Q11"/>
     <mergeCell ref="A24:Q24"/>
     <mergeCell ref="A25:Q25"/>
     <mergeCell ref="A26:Q26"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A11:S11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
